--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H2">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J2">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>2479.298081651376</v>
+        <v>5.12231068895</v>
       </c>
       <c r="R2">
-        <v>22313.68273486238</v>
+        <v>46.10079620055</v>
       </c>
       <c r="S2">
-        <v>0.05905286953281434</v>
+        <v>9.151197282335037E-05</v>
       </c>
       <c r="T2">
-        <v>0.05905286953281434</v>
+        <v>9.151197282335036E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H3">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J3">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>2214.535994779847</v>
+        <v>1.963655423749999</v>
       </c>
       <c r="R3">
-        <v>19930.82395301862</v>
+        <v>17.67289881375</v>
       </c>
       <c r="S3">
-        <v>0.05274666493040277</v>
+        <v>3.508142959002552E-05</v>
       </c>
       <c r="T3">
-        <v>0.05274666493040278</v>
+        <v>3.508142959002552E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>46.85851166666667</v>
+        <v>0.04155</v>
       </c>
       <c r="H4">
-        <v>140.575535</v>
+        <v>0.12465</v>
       </c>
       <c r="I4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="J4">
-        <v>0.1419057303676978</v>
+        <v>0.0001466168179836329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>1263.989952432752</v>
+        <v>1.1207949347</v>
       </c>
       <c r="R4">
-        <v>11375.90957189477</v>
+        <v>10.0871544123</v>
       </c>
       <c r="S4">
-        <v>0.0301061959044807</v>
+        <v>2.002341557025698E-05</v>
       </c>
       <c r="T4">
-        <v>0.0301061959044807</v>
+        <v>2.002341557025697E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>849.531647</v>
       </c>
       <c r="I5">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J5">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>14982.99247240449</v>
+        <v>34910.26904155153</v>
       </c>
       <c r="R5">
-        <v>134846.9322516404</v>
+        <v>314192.4213739638</v>
       </c>
       <c r="S5">
-        <v>0.3568706426355616</v>
+        <v>0.623684853532612</v>
       </c>
       <c r="T5">
-        <v>0.3568706426355617</v>
+        <v>0.6236848535326119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>849.531647</v>
       </c>
       <c r="I6">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J6">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>13382.97173107758</v>
@@ -818,10 +818,10 @@
         <v>120446.7455796982</v>
       </c>
       <c r="S6">
-        <v>0.3187607369382034</v>
+        <v>0.2390917341253824</v>
       </c>
       <c r="T6">
-        <v>0.3187607369382034</v>
+        <v>0.2390917341253824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>849.531647</v>
       </c>
       <c r="I7">
-        <v>0.8575703363889615</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="J7">
-        <v>0.8575703363889616</v>
+        <v>0.9992428949822291</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>7638.594198354982</v>
@@ -880,10 +880,10 @@
         <v>68747.34778519484</v>
       </c>
       <c r="S7">
-        <v>0.1819389568151965</v>
+        <v>0.1364663073242347</v>
       </c>
       <c r="T7">
-        <v>0.1819389568151965</v>
+        <v>0.1364663073242346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.519022</v>
       </c>
       <c r="I8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J8">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>9.153870543226887</v>
+        <v>21.32845518171044</v>
       </c>
       <c r="R8">
-        <v>82.384834889042</v>
+        <v>191.956096635394</v>
       </c>
       <c r="S8">
-        <v>0.0002180303880804036</v>
+        <v>0.0003810407313174565</v>
       </c>
       <c r="T8">
-        <v>0.0002180303880804036</v>
+        <v>0.0003810407313174564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.519022</v>
       </c>
       <c r="I9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J9">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>8.176336665427776</v>
@@ -1004,10 +1004,10 @@
         <v>73.58702998884999</v>
       </c>
       <c r="S9">
-        <v>0.0001947471124723623</v>
+        <v>0.0001460732751598414</v>
       </c>
       <c r="T9">
-        <v>0.0001947471124723623</v>
+        <v>0.0001460732751598413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.519022</v>
       </c>
       <c r="I10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874136</v>
       </c>
       <c r="J10">
-        <v>0.000523933243340694</v>
+        <v>0.0006104881997874135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>4.666804882453778</v>
@@ -1066,10 +1066,10 @@
         <v>42.001243942084</v>
       </c>
       <c r="S10">
-        <v>0.0001111557427879281</v>
+        <v>8.337419331011565E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001111557427879281</v>
+        <v>8.337419331011563E-05</v>
       </c>
     </row>
   </sheetData>
